--- a/multiplus_simulator/results/qoe_sim5.xlsx
+++ b/multiplus_simulator/results/qoe_sim5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>User1</t>
   </si>
@@ -164,6 +164,111 @@
   </si>
   <si>
     <t>User50</t>
+  </si>
+  <si>
+    <t>User51</t>
+  </si>
+  <si>
+    <t>User52</t>
+  </si>
+  <si>
+    <t>User53</t>
+  </si>
+  <si>
+    <t>User54</t>
+  </si>
+  <si>
+    <t>User55</t>
+  </si>
+  <si>
+    <t>User56</t>
+  </si>
+  <si>
+    <t>User57</t>
+  </si>
+  <si>
+    <t>User58</t>
+  </si>
+  <si>
+    <t>User59</t>
+  </si>
+  <si>
+    <t>User60</t>
+  </si>
+  <si>
+    <t>User61</t>
+  </si>
+  <si>
+    <t>User62</t>
+  </si>
+  <si>
+    <t>User63</t>
+  </si>
+  <si>
+    <t>User64</t>
+  </si>
+  <si>
+    <t>User65</t>
+  </si>
+  <si>
+    <t>User66</t>
+  </si>
+  <si>
+    <t>User67</t>
+  </si>
+  <si>
+    <t>User68</t>
+  </si>
+  <si>
+    <t>User69</t>
+  </si>
+  <si>
+    <t>User70</t>
+  </si>
+  <si>
+    <t>User71</t>
+  </si>
+  <si>
+    <t>User72</t>
+  </si>
+  <si>
+    <t>User73</t>
+  </si>
+  <si>
+    <t>User74</t>
+  </si>
+  <si>
+    <t>User75</t>
+  </si>
+  <si>
+    <t>User76</t>
+  </si>
+  <si>
+    <t>User77</t>
+  </si>
+  <si>
+    <t>User78</t>
+  </si>
+  <si>
+    <t>User79</t>
+  </si>
+  <si>
+    <t>User80</t>
+  </si>
+  <si>
+    <t>User81</t>
+  </si>
+  <si>
+    <t>User82</t>
+  </si>
+  <si>
+    <t>User83</t>
+  </si>
+  <si>
+    <t>User84</t>
+  </si>
+  <si>
+    <t>User85</t>
   </si>
   <si>
     <t>#Users</t>
@@ -519,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:U90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,64 +632,64 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="Q1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="R1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="S1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="T1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="U1" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -592,64 +697,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.063879119723762</v>
+        <v>4.307218851400546</v>
       </c>
       <c r="C2">
-        <v>1.043061760259288</v>
+        <v>4.071310504578742</v>
       </c>
       <c r="D2">
-        <v>1.007331297478956</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.103879943203649</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.556350575859674</v>
       </c>
       <c r="G2">
-        <v>1.063879119723762</v>
+        <v>4.295830884701895</v>
       </c>
       <c r="H2">
-        <v>1.041651917138526</v>
+        <v>3.87031852153015</v>
       </c>
       <c r="I2">
-        <v>0.9888607813449256</v>
+        <v>3.440418750968198</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="L2">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M2">
-        <v>1.048363358869812</v>
+        <v>4.208533360536908</v>
       </c>
       <c r="N2">
-        <v>1.025330064300367</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O2">
-        <v>0.9686543630543183</v>
+        <v>2.261496478340575</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.976115413287026</v>
       </c>
       <c r="Q2">
-        <v>1.063879119723762</v>
+        <v>4.306497144919303</v>
       </c>
       <c r="R2">
-        <v>1.042220403815936</v>
+        <v>3.970829052055646</v>
       </c>
       <c r="S2">
-        <v>1.004630242898662</v>
+        <v>3.461837563213821</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.102648781988058</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.529813224795214</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -657,64 +762,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.063879119723762</v>
+        <v>4.307218851400546</v>
       </c>
       <c r="C3">
-        <v>1.043061760259288</v>
+        <v>4.030876786195251</v>
       </c>
       <c r="D3">
-        <v>1.007547763174238</v>
+        <v>3.512148479569349</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.556125992968532</v>
       </c>
       <c r="G3">
-        <v>1.063879119723762</v>
+        <v>4.295902356483357</v>
       </c>
       <c r="H3">
-        <v>1.041651917138526</v>
+        <v>3.867644631554773</v>
       </c>
       <c r="I3">
-        <v>0.9885020446512783</v>
+        <v>3.440297680078109</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="L3">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M3">
-        <v>1.048278911584301</v>
+        <v>4.133366108527066</v>
       </c>
       <c r="N3">
-        <v>1.025193550437113</v>
+        <v>3.512381104430014</v>
       </c>
       <c r="O3">
-        <v>0.9680497855920076</v>
+        <v>2.250019817938202</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.860056677665152</v>
       </c>
       <c r="Q3">
-        <v>1.063879119723762</v>
+        <v>4.306497144919303</v>
       </c>
       <c r="R3">
-        <v>1.042314553449994</v>
+        <v>3.966917525211378</v>
       </c>
       <c r="S3">
-        <v>1.004862998135761</v>
+        <v>3.464435137228179</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2.092714611034538</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.528380080988462</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -722,64 +827,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.063879119723762</v>
+        <v>4.307218851400546</v>
       </c>
       <c r="C4">
-        <v>1.04315442543658</v>
+        <v>4.071305915801945</v>
       </c>
       <c r="D4">
-        <v>1.007547763174238</v>
+        <v>3.518588080448546</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.556508362244175</v>
       </c>
       <c r="G4">
-        <v>1.063879119723762</v>
+        <v>4.295841366994498</v>
       </c>
       <c r="H4">
-        <v>1.041651917138526</v>
+        <v>3.863934524582858</v>
       </c>
       <c r="I4">
-        <v>0.9885020446512783</v>
+        <v>3.440106166692218</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="L4">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M4">
-        <v>1.048194343718027</v>
+        <v>4.208476859239677</v>
       </c>
       <c r="N4">
-        <v>1.025193550437113</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O4">
-        <v>0.9674360913562696</v>
+        <v>2.261362935840736</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.969801135773166</v>
       </c>
       <c r="Q4">
-        <v>1.063879119723762</v>
+        <v>4.306441626368934</v>
       </c>
       <c r="R4">
-        <v>1.042220403815936</v>
+        <v>3.970540316755997</v>
       </c>
       <c r="S4">
-        <v>1.004862998135761</v>
+        <v>3.467128770103954</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2.102648781988058</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.542500641414856</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -787,58 +892,58 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.063879119723762</v>
+        <v>4.307329877452789</v>
       </c>
       <c r="C5">
-        <v>1.043061760259288</v>
+        <v>3.883269286943355</v>
       </c>
       <c r="D5">
-        <v>1.007547763174238</v>
+        <v>3.390645987828446</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2.043161382094982</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1.556214750511108</v>
       </c>
       <c r="G5">
-        <v>1.063879119723762</v>
+        <v>4.295902567570407</v>
       </c>
       <c r="H5">
-        <v>1.041651917138526</v>
+        <v>3.868473524342275</v>
       </c>
       <c r="I5">
-        <v>0.9888607813449256</v>
+        <v>3.4398896938072</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="L5">
-        <v>1.063879119723762</v>
+        <v>4.353155097719873</v>
       </c>
       <c r="M5">
-        <v>1.048278911584301</v>
+        <v>1.261844753517026</v>
       </c>
       <c r="N5">
-        <v>1.025193550437113</v>
+        <v>0.7006880829289459</v>
       </c>
       <c r="O5">
-        <v>0.9674360913562696</v>
+        <v>0.02211024220582969</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.063879119723762</v>
+        <v>4.306441626368934</v>
       </c>
       <c r="R5">
-        <v>1.042220403815936</v>
+        <v>1.797853823125381</v>
       </c>
       <c r="S5">
-        <v>1.004630242898662</v>
+        <v>0.5208449985786539</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -852,64 +957,64 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.063879119723762</v>
+        <v>4.307218851400546</v>
       </c>
       <c r="C6">
-        <v>1.04315442543658</v>
+        <v>4.032895057225807</v>
       </c>
       <c r="D6">
-        <v>1.007331297478956</v>
+        <v>3.515347064495341</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2.103879943203649</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.526636928046523</v>
       </c>
       <c r="G6">
-        <v>1.063879119723762</v>
+        <v>4.295701184610341</v>
       </c>
       <c r="H6">
-        <v>1.041651917138526</v>
+        <v>3.867452589864108</v>
       </c>
       <c r="I6">
-        <v>0.9888607813449256</v>
+        <v>3.440514976351856</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="L6">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M6">
-        <v>1.048278911584301</v>
+        <v>4.107530379909694</v>
       </c>
       <c r="N6">
-        <v>1.025330064300367</v>
+        <v>3.492481071380594</v>
       </c>
       <c r="O6">
-        <v>0.9680497855920076</v>
+        <v>2.128085703457299</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.85151244648154</v>
       </c>
       <c r="Q6">
-        <v>1.063879119723762</v>
+        <v>4.306497144919303</v>
       </c>
       <c r="R6">
-        <v>1.042314553449994</v>
+        <v>3.973899305885521</v>
       </c>
       <c r="S6">
-        <v>1.004630242898662</v>
+        <v>3.429135161126013</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.3613534502298197</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.476248603784064</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -917,64 +1022,64 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.063879119723762</v>
+        <v>4.307274364617102</v>
       </c>
       <c r="C7">
-        <v>1.04315442543658</v>
+        <v>4.071447868653908</v>
       </c>
       <c r="D7">
-        <v>1.007331297478956</v>
+        <v>3.518480058668575</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.556677759127359</v>
       </c>
       <c r="G7">
-        <v>1.063879119723762</v>
+        <v>4.295575299730474</v>
       </c>
       <c r="H7">
-        <v>1.041651917138526</v>
+        <v>3.864598686559361</v>
       </c>
       <c r="I7">
-        <v>0.9888607813449256</v>
+        <v>3.439827304606536</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="L7">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M7">
-        <v>1.048194343718027</v>
+        <v>4.208476859239677</v>
       </c>
       <c r="N7">
-        <v>1.025193550437113</v>
+        <v>3.613102692939146</v>
       </c>
       <c r="O7">
-        <v>0.9686543630543183</v>
+        <v>2.261118886209699</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.978048438542402</v>
       </c>
       <c r="Q7">
-        <v>1.063879119723762</v>
+        <v>4.306441626368934</v>
       </c>
       <c r="R7">
-        <v>1.042314553449994</v>
+        <v>3.969985071864367</v>
       </c>
       <c r="S7">
-        <v>1.004862998135761</v>
+        <v>3.461703220145889</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>2.102648781988058</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.531658478688717</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -982,58 +1087,58 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.063879119723762</v>
+        <v>4.307218851400546</v>
       </c>
       <c r="C8">
-        <v>1.043061760259288</v>
+        <v>3.93089640269682</v>
       </c>
       <c r="D8">
-        <v>1.007331297478956</v>
+        <v>3.444264522303209</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2.103535231744792</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.524449604102968</v>
       </c>
       <c r="G8">
-        <v>1.063879119723762</v>
+        <v>4.295632285496952</v>
       </c>
       <c r="H8">
-        <v>1.041651917138526</v>
+        <v>3.866320772610923</v>
       </c>
       <c r="I8">
-        <v>0.9888607813449256</v>
+        <v>3.440831882704399</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="L8">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M8">
-        <v>1.048278911584301</v>
+        <v>1.905903919022598</v>
       </c>
       <c r="N8">
-        <v>1.025193550437113</v>
+        <v>1.415427255711473</v>
       </c>
       <c r="O8">
-        <v>0.9680497855920076</v>
+        <v>0.2687546459880363</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.622466132148791</v>
       </c>
       <c r="Q8">
-        <v>1.063879119723762</v>
+        <v>4.287003399025974</v>
       </c>
       <c r="R8">
-        <v>1.042220403815936</v>
+        <v>3.937190737943911</v>
       </c>
       <c r="S8">
-        <v>1.004630242898662</v>
+        <v>1.794392523184708</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1047,64 +1152,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.063879119723762</v>
+        <v>4.307274364617102</v>
       </c>
       <c r="C9">
-        <v>1.04315442543658</v>
+        <v>4.070856557521696</v>
       </c>
       <c r="D9">
-        <v>1.007331297478956</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.556169475175335</v>
       </c>
       <c r="G9">
-        <v>1.063879119723762</v>
+        <v>4.295632298581961</v>
       </c>
       <c r="H9">
-        <v>1.041651917138526</v>
+        <v>3.869645079943726</v>
       </c>
       <c r="I9">
-        <v>0.9888607813449256</v>
+        <v>3.427873702497682</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.520529969194051</v>
       </c>
       <c r="L9">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M9">
-        <v>1.048278911584301</v>
+        <v>4.208420357535069</v>
       </c>
       <c r="N9">
-        <v>1.025056581907364</v>
+        <v>3.613155808637991</v>
       </c>
       <c r="O9">
-        <v>0.9680497855920076</v>
+        <v>2.261073442099081</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.971223331712976</v>
       </c>
       <c r="Q9">
-        <v>1.063879119723762</v>
+        <v>4.306441626368934</v>
       </c>
       <c r="R9">
-        <v>1.042220403815936</v>
+        <v>3.970249233370463</v>
       </c>
       <c r="S9">
-        <v>1.004862998135761</v>
+        <v>3.461798493755174</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2.102648781988058</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.532147799094076</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1112,64 +1217,64 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.063879119723762</v>
+        <v>4.307274364617102</v>
       </c>
       <c r="C10">
-        <v>1.04315442543658</v>
+        <v>4.071228692372968</v>
       </c>
       <c r="D10">
-        <v>1.007331297478957</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.556169475175335</v>
       </c>
       <c r="G10">
-        <v>1.063879119723762</v>
+        <v>4.29584728251893</v>
       </c>
       <c r="H10">
-        <v>1.041651917138526</v>
+        <v>3.864043958509716</v>
       </c>
       <c r="I10">
-        <v>0.9888607813449267</v>
+        <v>3.440488382039017</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="L10">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M10">
-        <v>1.048194343718027</v>
+        <v>4.208476859239677</v>
       </c>
       <c r="N10">
-        <v>1.025193550437113</v>
+        <v>3.613102692939146</v>
       </c>
       <c r="O10">
-        <v>0.9680497855920074</v>
+        <v>2.261397711139454</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.97137036511747</v>
       </c>
       <c r="Q10">
-        <v>1.063879119723762</v>
+        <v>4.306441626368934</v>
       </c>
       <c r="R10">
-        <v>1.042220403815936</v>
+        <v>3.974595903671958</v>
       </c>
       <c r="S10">
-        <v>1.004862998135761</v>
+        <v>3.46437175793215</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>2.102648781988058</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.531949836012293</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1177,220 +1282,256 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.063879119723762</v>
+        <v>4.307218851400546</v>
       </c>
       <c r="C11">
-        <v>1.043246929984974</v>
+        <v>4.071679635947576</v>
       </c>
       <c r="D11">
-        <v>1.007547763174238</v>
+        <v>3.518480058668575</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.556214750511108</v>
       </c>
       <c r="G11">
-        <v>1.063879119723762</v>
+        <v>4.295635107941979</v>
       </c>
       <c r="H11">
-        <v>1.041651917138526</v>
+        <v>3.865340077764249</v>
       </c>
       <c r="I11">
-        <v>0.9888607813449256</v>
+        <v>3.440392122558128</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="L11">
-        <v>1.063879119723762</v>
+        <v>4.353100076870903</v>
       </c>
       <c r="M11">
-        <v>1.048278911584301</v>
+        <v>4.208476859239677</v>
       </c>
       <c r="N11">
-        <v>1.025193550437113</v>
+        <v>3.613102692939146</v>
       </c>
       <c r="O11">
-        <v>0.9680497855920076</v>
+        <v>2.261196345605437</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.978559142855485</v>
       </c>
       <c r="Q11">
-        <v>1.063879119723762</v>
+        <v>4.306441626368934</v>
       </c>
       <c r="R11">
-        <v>1.042314553449994</v>
+        <v>3.981335389072258</v>
       </c>
       <c r="S11">
-        <v>1.004630242898662</v>
+        <v>3.461678417228796</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>2.102698031043334</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.530152170934961</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>4.307218851400546</v>
+      </c>
       <c r="C12">
-        <v>1.043061760259288</v>
+        <v>4.071464910316657</v>
       </c>
       <c r="D12">
-        <v>1.007547763174238</v>
+        <v>3.518480058668575</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.556154444397302</v>
+      </c>
+      <c r="G12">
+        <v>4.295748400553126</v>
       </c>
       <c r="H12">
-        <v>1.041651917138526</v>
+        <v>3.872749358146449</v>
       </c>
       <c r="I12">
-        <v>0.9888607813449256</v>
+        <v>3.440394365170606</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="L12">
+        <v>4.353100076870903</v>
       </c>
       <c r="M12">
-        <v>1.048194343718027</v>
+        <v>4.208420357535069</v>
       </c>
       <c r="N12">
-        <v>1.025193550437113</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O12">
-        <v>0.9686543630543183</v>
+        <v>2.261313792725483</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.978454102025681</v>
+      </c>
+      <c r="Q12">
+        <v>4.306497144919303</v>
       </c>
       <c r="R12">
-        <v>1.042314553449994</v>
+        <v>3.981411254457169</v>
       </c>
       <c r="S12">
-        <v>1.004862998135761</v>
+        <v>3.467264605098987</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2.102599532715481</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.531843133260908</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>4.307274364617102</v>
+      </c>
       <c r="C13">
-        <v>1.043061760259288</v>
+        <v>4.071316937667405</v>
       </c>
       <c r="D13">
-        <v>1.007547763174238</v>
+        <v>3.518480058668575</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1.556214750511108</v>
+      </c>
+      <c r="G13">
+        <v>4.295638508819208</v>
       </c>
       <c r="H13">
-        <v>1.041651917138526</v>
+        <v>3.870196634015388</v>
       </c>
       <c r="I13">
-        <v>0.9888607813449256</v>
+        <v>3.428485317522192</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="L13">
+        <v>4.353100076870903</v>
       </c>
       <c r="M13">
-        <v>1.048194343718027</v>
+        <v>4.208476859239677</v>
       </c>
       <c r="N13">
-        <v>1.025056581907364</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O13">
-        <v>0.9686543630543183</v>
+        <v>2.261416324119994</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.97901541051499</v>
+      </c>
+      <c r="Q13">
+        <v>4.306441626368934</v>
       </c>
       <c r="R13">
-        <v>1.042220403815936</v>
+        <v>3.970253149559491</v>
       </c>
       <c r="S13">
-        <v>1.004630242898662</v>
+        <v>3.467067732865208</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2.102550283225587</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.531723725200315</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>4.307274364617102</v>
+      </c>
       <c r="C14">
-        <v>1.04315442543658</v>
+        <v>4.034599355037276</v>
       </c>
       <c r="D14">
-        <v>1.007547763174238</v>
+        <v>3.505321395244533</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.556305300853272</v>
+      </c>
+      <c r="G14">
+        <v>4.29575411211403</v>
       </c>
       <c r="H14">
-        <v>1.041651917138526</v>
+        <v>3.866195559931828</v>
       </c>
       <c r="I14">
-        <v>0.9888607813449256</v>
+        <v>3.440328957191583</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="L14">
+        <v>4.353045055654779</v>
       </c>
       <c r="M14">
-        <v>1.048194343718027</v>
+        <v>4.153741523525507</v>
       </c>
       <c r="N14">
-        <v>1.025193550437113</v>
+        <v>3.551066128803583</v>
       </c>
       <c r="O14">
-        <v>0.9674360913562696</v>
+        <v>2.174694420179342</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.915244688580633</v>
+      </c>
+      <c r="Q14">
+        <v>4.306441626368934</v>
       </c>
       <c r="R14">
-        <v>1.042220403815936</v>
+        <v>3.980002080539383</v>
       </c>
       <c r="S14">
-        <v>1.004862998135761</v>
+        <v>3.446293176973345</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>0.4717198256032944</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1400,100 +1541,124 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>4.307274364617102</v>
+      </c>
       <c r="C15">
-        <v>1.04315442543658</v>
+        <v>4.071083732145023</v>
       </c>
       <c r="D15">
-        <v>1.007331297478956</v>
+        <v>3.518588080448546</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1.556260025737084</v>
+      </c>
+      <c r="G15">
+        <v>4.295759366972329</v>
       </c>
       <c r="H15">
-        <v>1.041651917138526</v>
+        <v>3.869727000871964</v>
       </c>
       <c r="I15">
-        <v>0.9885020446512783</v>
+        <v>3.440386425499862</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="L15">
+        <v>4.353155097719873</v>
       </c>
       <c r="M15">
-        <v>1.048278911584301</v>
+        <v>4.208533360536908</v>
       </c>
       <c r="N15">
-        <v>1.025193550437113</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O15">
-        <v>0.9680497855920076</v>
+        <v>2.26133323407966</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.97647147395619</v>
+      </c>
+      <c r="Q15">
+        <v>4.306441626368934</v>
       </c>
       <c r="R15">
-        <v>1.042314553449994</v>
+        <v>3.981273811840159</v>
       </c>
       <c r="S15">
-        <v>1.004630242898662</v>
+        <v>3.461747218019345</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>2.102550283225587</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1.53200887641795</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>4.265737142787196</v>
+      </c>
       <c r="C16">
-        <v>1.042220403815936</v>
+        <v>3.769695664345737</v>
       </c>
       <c r="D16">
-        <v>1.004160297575708</v>
+        <v>3.243499689394473</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1.918164469693069</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1.520757878870674</v>
+      </c>
+      <c r="G16">
+        <v>4.295684418067227</v>
       </c>
       <c r="H16">
-        <v>1.041747096787062</v>
+        <v>3.867133782627607</v>
       </c>
       <c r="I16">
-        <v>0.989216126542858</v>
+        <v>3.440582989871254</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="L16">
+        <v>3.965520090785206</v>
       </c>
       <c r="M16">
-        <v>1.0425959951379</v>
+        <v>0.8526071940052775</v>
       </c>
       <c r="N16">
-        <v>1.016865951760459</v>
+        <v>0.4081462527171527</v>
       </c>
       <c r="O16">
-        <v>0.9122434990573892</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
+      <c r="Q16">
+        <v>4.278223289848775</v>
+      </c>
       <c r="R16">
-        <v>1.04184210244375</v>
+        <v>1.931413901412162</v>
       </c>
       <c r="S16">
-        <v>1.003202119947885</v>
+        <v>1.279053672389056</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1506,100 +1671,124 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>4.306830248219121</v>
+      </c>
       <c r="C17">
-        <v>1.042968933607929</v>
+        <v>4.043844874215595</v>
       </c>
       <c r="D17">
-        <v>1.00689454900391</v>
+        <v>3.514258338943198</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.100580125323152</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1.540320400159231</v>
+      </c>
+      <c r="G17">
+        <v>4.295891335406337</v>
       </c>
       <c r="H17">
-        <v>1.041747096787062</v>
+        <v>3.869648634618537</v>
       </c>
       <c r="I17">
-        <v>0.989216126542858</v>
+        <v>3.434543675174994</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="L17">
+        <v>4.259360217776435</v>
       </c>
       <c r="M17">
-        <v>1.047769675776071</v>
+        <v>4.111442066049027</v>
       </c>
       <c r="N17">
-        <v>1.02422501529636</v>
+        <v>3.498039187566309</v>
       </c>
       <c r="O17">
-        <v>0.9642216998946141</v>
+        <v>2.089935237921324</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.936857581832808</v>
+      </c>
+      <c r="Q17">
+        <v>4.270041643175901</v>
       </c>
       <c r="R17">
-        <v>1.042314553449994</v>
+        <v>3.964308113374645</v>
       </c>
       <c r="S17">
-        <v>1.004630242898662</v>
+        <v>3.471542669559381</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>2.102698031043334</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.526754219026797</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>4.262605137297634</v>
+      </c>
       <c r="C18">
-        <v>1.04184210244375</v>
+        <v>3.766226041037083</v>
       </c>
       <c r="D18">
-        <v>1.002958647398784</v>
+        <v>3.249897640146182</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.038129676177544</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1.536793231182166</v>
+      </c>
+      <c r="G18">
+        <v>4.295938325670952</v>
       </c>
       <c r="H18">
-        <v>1.041651917138526</v>
+        <v>3.866022311783331</v>
       </c>
       <c r="I18">
-        <v>0.989216126542858</v>
+        <v>3.428241950875663</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="L18">
+        <v>4.125436944014515</v>
       </c>
       <c r="M18">
-        <v>1.0425959951379</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.0214731421349</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9536370775519365</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
+      <c r="Q18">
+        <v>4.270097530520596</v>
+      </c>
       <c r="R18">
-        <v>1.04184210244375</v>
+        <v>1.637936119267187</v>
       </c>
       <c r="S18">
-        <v>1.004862998135761</v>
+        <v>1.204294575682282</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -1612,100 +1801,124 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>4.307274364617102</v>
+      </c>
       <c r="C19">
-        <v>1.04315442543658</v>
+        <v>4.011906966635691</v>
       </c>
       <c r="D19">
-        <v>1.007331297478956</v>
+        <v>3.449966495744453</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.099299335933325</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1.520028557493102</v>
+      </c>
+      <c r="G19">
+        <v>4.295809569121229</v>
       </c>
       <c r="H19">
-        <v>1.041651917138526</v>
+        <v>3.865448723065923</v>
       </c>
       <c r="I19">
-        <v>0.989216126542858</v>
+        <v>3.435042588228923</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="L19">
+        <v>4.296388296170455</v>
       </c>
       <c r="M19">
-        <v>1.048278911584301</v>
+        <v>4.040912057611719</v>
       </c>
       <c r="N19">
-        <v>1.025330064300367</v>
+        <v>3.40882103730994</v>
       </c>
       <c r="O19">
-        <v>0.9491265277777781</v>
+        <v>2.008920281877592</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.859497615712849</v>
+      </c>
+      <c r="Q19">
+        <v>4.287003399025974</v>
       </c>
       <c r="R19">
-        <v>1.042220403815936</v>
+        <v>3.933804197433402</v>
       </c>
       <c r="S19">
-        <v>1.004862998135761</v>
+        <v>3.346896222185784</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>2.159820386955094</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1.522966393070027</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>4.307218851400546</v>
+      </c>
       <c r="C20">
-        <v>1.04315442543658</v>
+        <v>3.982452930555792</v>
       </c>
       <c r="D20">
-        <v>1.007547763174238</v>
+        <v>3.509067485745591</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1.556350575859674</v>
+      </c>
+      <c r="G20">
+        <v>4.295635021298589</v>
       </c>
       <c r="H20">
-        <v>1.041651917138526</v>
+        <v>3.87624602158044</v>
       </c>
       <c r="I20">
-        <v>0.9885020446512783</v>
+        <v>3.439507551908283</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="L20">
+        <v>4.353100076870903</v>
       </c>
       <c r="M20">
-        <v>1.048278911584301</v>
+        <v>2.569880873163154</v>
       </c>
       <c r="N20">
-        <v>1.025193550437113</v>
+        <v>1.780452707361559</v>
       </c>
       <c r="O20">
-        <v>0.9686543630543183</v>
+        <v>0.5854333462058141</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.320418295582112</v>
+      </c>
+      <c r="Q20">
+        <v>4.306497144919303</v>
       </c>
       <c r="R20">
-        <v>1.042220403815936</v>
+        <v>3.910767644796657</v>
       </c>
       <c r="S20">
-        <v>1.004630242898662</v>
+        <v>1.562287795816348</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -1718,79 +1931,109 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>4.307274364617102</v>
+      </c>
       <c r="C21">
-        <v>1.04315442543658</v>
+        <v>4.062974172909092</v>
       </c>
       <c r="D21">
-        <v>1.007331297478956</v>
+        <v>3.51586751460591</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2.103879943203649</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1.556260025737084</v>
+      </c>
+      <c r="G21">
+        <v>4.295800783349939</v>
       </c>
       <c r="H21">
-        <v>1.041651917138526</v>
+        <v>3.870066391950743</v>
       </c>
       <c r="I21">
-        <v>0.9888607813449256</v>
+        <v>3.440029077283933</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.5206211334196</v>
+      </c>
+      <c r="L21">
+        <v>4.353100076870903</v>
       </c>
       <c r="M21">
-        <v>1.048278911584301</v>
+        <v>4.186372906775676</v>
       </c>
       <c r="N21">
-        <v>1.025330064300367</v>
+        <v>3.571001618291872</v>
       </c>
       <c r="O21">
-        <v>0.9680497855920076</v>
+        <v>2.232367866077742</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.947906213747788</v>
+      </c>
+      <c r="Q21">
+        <v>4.306441626368934</v>
       </c>
       <c r="R21">
-        <v>1.042220403815936</v>
+        <v>3.974306664298828</v>
       </c>
       <c r="S21">
-        <v>1.004630242898662</v>
+        <v>3.446957434081924</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.976660707350784</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.337499493520743</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>3.962391310423584</v>
+      </c>
+      <c r="C22">
+        <v>3.413148567942021</v>
+      </c>
       <c r="D22">
-        <v>0.9906047807445099</v>
+        <v>2.839206145408952</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1.841896612260185</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1.461262622905014</v>
+      </c>
+      <c r="G22">
+        <v>4.292483408219397</v>
+      </c>
+      <c r="H22">
+        <v>3.867216651412978</v>
       </c>
       <c r="I22">
-        <v>0.9885020446512797</v>
+        <v>3.428194286217366</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="L22">
+        <v>3.871388145735863</v>
+      </c>
+      <c r="M22">
+        <v>0.5495866149388136</v>
       </c>
       <c r="N22">
-        <v>0.9938662007457995</v>
+        <v>0.01504840235129312</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1798,8 +2041,14 @@
       <c r="P22">
         <v>0</v>
       </c>
+      <c r="Q22">
+        <v>4.099891634522713</v>
+      </c>
+      <c r="R22">
+        <v>1.531017472552745</v>
+      </c>
       <c r="S22">
-        <v>0.9906047807445099</v>
+        <v>0.7335314875863312</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -1812,76 +2061,124 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>4.307218851400546</v>
+      </c>
+      <c r="C23">
+        <v>4.045826639845639</v>
+      </c>
       <c r="D23">
-        <v>1.007331297478956</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2.103879943203649</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1.556719603131</v>
+      </c>
+      <c r="G23">
+        <v>4.295632331482368</v>
+      </c>
+      <c r="H23">
+        <v>3.863733418535235</v>
       </c>
       <c r="I23">
-        <v>0.9888607813449256</v>
+        <v>3.440956684015308</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="L23">
+        <v>4.353100076870903</v>
+      </c>
+      <c r="M23">
+        <v>4.208533360536908</v>
       </c>
       <c r="N23">
-        <v>1.025193550437113</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O23">
-        <v>0.9680497855920076</v>
+        <v>2.261414528369372</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.965097868376175</v>
+      </c>
+      <c r="Q23">
+        <v>4.306441626368934</v>
+      </c>
+      <c r="R23">
+        <v>3.981477920285706</v>
       </c>
       <c r="S23">
-        <v>1.004630242898662</v>
+        <v>3.464539766765596</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>2.102550283225587</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.531582513387428</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>4.307274364617102</v>
+      </c>
+      <c r="C24">
+        <v>3.997286919225322</v>
+      </c>
       <c r="D24">
-        <v>1.007331297478956</v>
+        <v>3.494743241383003</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.103830699360797</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1.556350575859674</v>
+      </c>
+      <c r="G24">
+        <v>4.295811234678846</v>
+      </c>
+      <c r="H24">
+        <v>3.86945925074711</v>
       </c>
       <c r="I24">
-        <v>0.9888607813449256</v>
+        <v>3.439971953605499</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="L24">
+        <v>4.353100076870903</v>
+      </c>
+      <c r="M24">
+        <v>2.270711378413073</v>
       </c>
       <c r="N24">
-        <v>1.025193550437113</v>
+        <v>1.875067842851752</v>
       </c>
       <c r="O24">
-        <v>0.9674360913562696</v>
+        <v>0.6001868141935822</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.363742504380457</v>
+      </c>
+      <c r="Q24">
+        <v>4.306441626368934</v>
+      </c>
+      <c r="R24">
+        <v>3.949479610492302</v>
       </c>
       <c r="S24">
-        <v>1.004862998135761</v>
+        <v>1.60208528815197</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -1894,35 +2191,59 @@
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>3.962450158657169</v>
+      </c>
+      <c r="C25">
+        <v>3.534608453700482</v>
+      </c>
       <c r="D25">
-        <v>0.9906047807445088</v>
+        <v>3.028327723069081</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.900755795778539</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1.461399843311241</v>
+      </c>
+      <c r="G25">
+        <v>4.295856694278021</v>
+      </c>
+      <c r="H25">
+        <v>3.864536431381437</v>
       </c>
       <c r="I25">
-        <v>0.9885020446512783</v>
+        <v>3.428439054240398</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="L25">
+        <v>3.871388145735863</v>
+      </c>
+      <c r="M25">
+        <v>3.495202759826217</v>
       </c>
       <c r="N25">
-        <v>0.9938662007457983</v>
+        <v>2.892099997636858</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.674342164389929</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.540857668065819</v>
+      </c>
+      <c r="Q25">
+        <v>4.099424158251941</v>
+      </c>
+      <c r="R25">
+        <v>3.713010239952885</v>
       </c>
       <c r="S25">
-        <v>0.9906047807445088</v>
+        <v>1.248815227454135</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -1935,38 +2256,62 @@
       <c r="A26" t="s">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>4.307218851400546</v>
+      </c>
+      <c r="C26">
+        <v>4.018109453685796</v>
+      </c>
       <c r="D26">
-        <v>1.007331297478956</v>
+        <v>3.507887876827419</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1.556350575859674</v>
+      </c>
+      <c r="G26">
+        <v>4.295906443523445</v>
+      </c>
+      <c r="H26">
+        <v>3.868368605202002</v>
       </c>
       <c r="I26">
-        <v>0.9888607813449256</v>
+        <v>3.440394188579179</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="L26">
+        <v>4.353100076870903</v>
+      </c>
+      <c r="M26">
+        <v>4.153798593349731</v>
       </c>
       <c r="N26">
-        <v>1.025193550437113</v>
+        <v>3.565029938346511</v>
       </c>
       <c r="O26">
-        <v>0.9686543630543183</v>
+        <v>2.257688636966289</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.904800750975577</v>
+      </c>
+      <c r="Q26">
+        <v>4.306441626368934</v>
+      </c>
+      <c r="R26">
+        <v>3.949768587782327</v>
       </c>
       <c r="S26">
-        <v>1.004862998135761</v>
+        <v>3.427269033215053</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>2.079200075310431</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -1976,315 +2321,471 @@
       <c r="A27" t="s">
         <v>25</v>
       </c>
+      <c r="C27">
+        <v>4.071588155958669</v>
+      </c>
       <c r="D27">
-        <v>1.007331297478956</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1.556305300853272</v>
+      </c>
+      <c r="H27">
+        <v>3.86982918554547</v>
       </c>
       <c r="I27">
-        <v>0.9888607813449256</v>
+        <v>3.440278673046808</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="M27">
+        <v>4.208533360536908</v>
       </c>
       <c r="N27">
-        <v>1.025056581907364</v>
+        <v>3.613155808637991</v>
       </c>
       <c r="O27">
-        <v>0.9674360913562696</v>
+        <v>2.261105842081459</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1.971683904036359</v>
+      </c>
+      <c r="R27">
+        <v>3.970427389063174</v>
       </c>
       <c r="S27">
-        <v>1.004630242898662</v>
+        <v>3.461724153877748</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>2.102599532715481</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.532066039546311</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>26</v>
       </c>
+      <c r="C28">
+        <v>4.070982252048926</v>
+      </c>
       <c r="D28">
-        <v>1.007331297478956</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1.556124024418179</v>
+      </c>
+      <c r="H28">
+        <v>3.863825199533483</v>
       </c>
       <c r="I28">
-        <v>0.9888607813449256</v>
+        <v>3.440515147653682</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="M28">
+        <v>4.208589861426787</v>
       </c>
       <c r="N28">
-        <v>1.025193550437113</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O28">
-        <v>0.9680497855920076</v>
+        <v>2.261293404229007</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1.969300752116934</v>
+      </c>
+      <c r="R28">
+        <v>3.970777352860856</v>
       </c>
       <c r="S28">
-        <v>1.004630242898662</v>
+        <v>3.467322101733643</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>2.102698031043334</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.531717473264849</v>
       </c>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="C29">
+        <v>4.071431434135873</v>
+      </c>
       <c r="D29">
-        <v>1.007331297478956</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2.103879943203649</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1.556209945314846</v>
+      </c>
+      <c r="H29">
+        <v>3.870012271289644</v>
       </c>
       <c r="I29">
-        <v>0.9885020446512783</v>
+        <v>3.440779606911794</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="M29">
+        <v>4.208476859239677</v>
       </c>
       <c r="N29">
-        <v>1.025466127108279</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O29">
-        <v>0.9680497855920076</v>
+        <v>2.261169641802992</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.978080553546649</v>
+      </c>
+      <c r="R29">
+        <v>3.970528773833775</v>
       </c>
       <c r="S29">
-        <v>1.004862998135761</v>
+        <v>3.46735204746633</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>2.102599532715481</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.532011819725857</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>28</v>
       </c>
+      <c r="C30">
+        <v>4.071371291657362</v>
+      </c>
       <c r="D30">
-        <v>1.007547763174238</v>
+        <v>3.518534069729952</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1.55633726884404</v>
+      </c>
+      <c r="H30">
+        <v>3.87260562852197</v>
       </c>
       <c r="I30">
-        <v>0.9888607813449256</v>
+        <v>3.439878572798103</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="M30">
+        <v>4.208420357535069</v>
       </c>
       <c r="N30">
-        <v>1.025056581907364</v>
+        <v>3.613102692939146</v>
       </c>
       <c r="O30">
-        <v>0.9680497855920076</v>
+        <v>2.26130185117942</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1.972139501469734</v>
+      </c>
+      <c r="R30">
+        <v>3.974035340642045</v>
       </c>
       <c r="S30">
-        <v>1.004862998135761</v>
+        <v>3.46181838688951</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>2.102599532715481</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.531870331782763</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>29</v>
       </c>
+      <c r="C31">
+        <v>4.070876381648098</v>
+      </c>
       <c r="D31">
-        <v>1.007331297478956</v>
+        <v>3.518480058668575</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1.556169475175335</v>
+      </c>
+      <c r="H31">
+        <v>3.876676027241799</v>
       </c>
       <c r="I31">
-        <v>0.9885020446512783</v>
+        <v>3.440501455116965</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="M31">
+        <v>4.208533360536908</v>
       </c>
       <c r="N31">
-        <v>1.025193550437113</v>
+        <v>3.613049576922129</v>
       </c>
       <c r="O31">
-        <v>0.9680497855920076</v>
+        <v>2.261370926800074</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1.976157137400611</v>
+      </c>
+      <c r="R31">
+        <v>3.981370517549089</v>
       </c>
       <c r="S31">
-        <v>1.004862998135761</v>
+        <v>3.461709705604697</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>2.102550283225587</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1.531593277781666</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>30</v>
       </c>
+      <c r="C32">
+        <v>4.071641892358572</v>
+      </c>
+      <c r="D32">
+        <v>3.518480058668575</v>
+      </c>
       <c r="E32">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1.556214750511108</v>
+      </c>
+      <c r="H32">
+        <v>3.863942686052698</v>
+      </c>
+      <c r="I32">
+        <v>3.440751647443213</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="M32">
+        <v>4.208476859239677</v>
+      </c>
+      <c r="N32">
+        <v>3.613049576922129</v>
       </c>
       <c r="O32">
-        <v>0.9680497855920076</v>
+        <v>2.261463907571758</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1.97165405857279</v>
+      </c>
+      <c r="R32">
+        <v>3.981370418486426</v>
+      </c>
+      <c r="S32">
+        <v>3.464641814827986</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>2.102599532715481</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1.531708959739706</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>31</v>
       </c>
+      <c r="C33">
+        <v>4.071701548878411</v>
+      </c>
+      <c r="D33">
+        <v>3.518480058668575</v>
+      </c>
       <c r="E33">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1.555941954326709</v>
+      </c>
+      <c r="H33">
+        <v>3.863832707552017</v>
+      </c>
+      <c r="I33">
+        <v>3.440163730261494</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="M33">
+        <v>4.208476859239677</v>
+      </c>
+      <c r="N33">
+        <v>3.613102692939146</v>
       </c>
       <c r="O33">
-        <v>0.9686543630543183</v>
+        <v>2.261245004623928</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1.976197315353223</v>
+      </c>
+      <c r="R33">
+        <v>3.981229045805034</v>
+      </c>
+      <c r="S33">
+        <v>3.46184269087941</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>2.102599532715481</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1.530200386667431</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>32</v>
       </c>
+      <c r="C34">
+        <v>4.058159342698554</v>
+      </c>
+      <c r="D34">
+        <v>3.518642090824379</v>
+      </c>
       <c r="E34">
-        <v>0</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1.555991030218446</v>
+      </c>
+      <c r="H34">
+        <v>3.866241483116923</v>
+      </c>
+      <c r="I34">
+        <v>3.439805766817865</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="M34">
+        <v>4.208476859239677</v>
+      </c>
+      <c r="N34">
+        <v>3.613102692939146</v>
       </c>
       <c r="O34">
-        <v>0.9686543630543183</v>
+        <v>2.250056612027301</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1.976120546999998</v>
+      </c>
+      <c r="R34">
+        <v>3.970743493745622</v>
+      </c>
+      <c r="S34">
+        <v>3.464597701405884</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>2.102550283225587</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1.531752867811935</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>33</v>
       </c>
+      <c r="C35">
+        <v>3.820571315277759</v>
+      </c>
+      <c r="D35">
+        <v>3.399975907664583</v>
+      </c>
       <c r="E35">
-        <v>0</v>
+        <v>2.103879943203649</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1.556260025737084</v>
+      </c>
+      <c r="H35">
+        <v>3.866943129575517</v>
+      </c>
+      <c r="I35">
+        <v>3.440464199827931</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1.52066671535492</v>
+      </c>
+      <c r="M35">
+        <v>0.5594344321747524</v>
+      </c>
+      <c r="N35">
+        <v>0.2388675392095778</v>
       </c>
       <c r="O35">
-        <v>0.9686543630543183</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1.772097920505166</v>
+      </c>
+      <c r="S35">
+        <v>1.249305550189272</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -2297,23 +2798,47 @@
       <c r="A36" t="s">
         <v>34</v>
       </c>
+      <c r="C36">
+        <v>3.721626485368921</v>
+      </c>
+      <c r="D36">
+        <v>3.2465114080613</v>
+      </c>
       <c r="E36">
-        <v>0</v>
+        <v>2.065162231640733</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1.508035978680316</v>
+      </c>
+      <c r="H36">
+        <v>3.867732711903696</v>
+      </c>
+      <c r="I36">
+        <v>3.440147656972519</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="M36">
+        <v>1.434851779975913</v>
+      </c>
+      <c r="N36">
+        <v>0.9245397312401054</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
         <v>0</v>
+      </c>
+      <c r="R36">
+        <v>3.841402746359292</v>
+      </c>
+      <c r="S36">
+        <v>0.3830285404338856</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -2326,52 +2851,76 @@
       <c r="A37" t="s">
         <v>35</v>
       </c>
+      <c r="D37">
+        <v>3.518480058668575</v>
+      </c>
       <c r="E37">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1.556260025737084</v>
+      </c>
+      <c r="I37">
+        <v>3.427753830966534</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2.09787058932542</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="N37">
+        <v>3.613102692939146</v>
       </c>
       <c r="O37">
-        <v>0.9686543630543183</v>
+        <v>2.261451951221976</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1.975834229936203</v>
+      </c>
+      <c r="S37">
+        <v>3.466996390489788</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>2.102599532715481</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1.529840698059656</v>
       </c>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>36</v>
       </c>
+      <c r="D38">
+        <v>3.507861561375996</v>
+      </c>
       <c r="E38">
-        <v>0</v>
+        <v>2.103879943203649</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1.556350575859674</v>
+      </c>
+      <c r="I38">
+        <v>3.440503248258018</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1.5206211334196</v>
+      </c>
+      <c r="N38">
+        <v>3.551066128803583</v>
       </c>
       <c r="O38">
-        <v>0.9674360913562696</v>
+        <v>2.174757688019619</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1.902783848369371</v>
+      </c>
+      <c r="S38">
+        <v>3.432935174523996</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -2384,52 +2933,76 @@
       <c r="A39" t="s">
         <v>37</v>
       </c>
+      <c r="D39">
+        <v>3.518588080448546</v>
+      </c>
       <c r="E39">
-        <v>0</v>
+        <v>2.10402767342985</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1.555990179351595</v>
+      </c>
+      <c r="I39">
+        <v>3.440161911671588</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="N39">
+        <v>2.18508883462358</v>
       </c>
       <c r="O39">
-        <v>0.9680497855920076</v>
+        <v>0.8409501400539654</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>0.5515918977441112</v>
+      </c>
+      <c r="S39">
+        <v>3.449435929976898</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>2.076848119162709</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1.526559783660432</v>
       </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>38</v>
       </c>
+      <c r="D40">
+        <v>3.38780243354925</v>
+      </c>
       <c r="E40">
-        <v>0</v>
+        <v>2.100482046672441</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1.556040967148641</v>
+      </c>
+      <c r="I40">
+        <v>3.440392037167852</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="N40">
+        <v>0.2525869248254251</v>
       </c>
       <c r="O40">
-        <v>0.9680497855920076</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0.164261862064254</v>
       </c>
       <c r="T40">
         <v>0</v>
@@ -2442,23 +3015,35 @@
       <c r="A41" t="s">
         <v>39</v>
       </c>
+      <c r="D41">
+        <v>3.432104050531373</v>
+      </c>
       <c r="E41">
-        <v>0</v>
+        <v>2.091463604352752</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1.531889850725536</v>
+      </c>
+      <c r="I41">
+        <v>3.428132816328074</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>2.097722777480963</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="N41">
+        <v>3.202062623215887</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>1.968850744943631</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1.849735783486234</v>
+      </c>
+      <c r="S41">
+        <v>3.372501079926504</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -2471,14 +3056,38 @@
       <c r="A42" t="s">
         <v>40</v>
       </c>
+      <c r="D42">
+        <v>3.403895482724517</v>
+      </c>
+      <c r="E42">
+        <v>2.093368066099644</v>
+      </c>
       <c r="F42">
-        <v>0</v>
+        <v>1.540217566455111</v>
+      </c>
+      <c r="I42">
+        <v>3.42822461089367</v>
+      </c>
+      <c r="J42">
+        <v>2.097722777480963</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="N42">
+        <v>3.342079976286858</v>
+      </c>
+      <c r="O42">
+        <v>1.957393574108726</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1.833315789919124</v>
+      </c>
+      <c r="S42">
+        <v>3.420828054443174</v>
+      </c>
+      <c r="T42">
+        <v>0.02903331451264335</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -2488,14 +3097,38 @@
       <c r="A43" t="s">
         <v>41</v>
       </c>
+      <c r="D43">
+        <v>3.472837791632049</v>
+      </c>
+      <c r="E43">
+        <v>2.103978430238167</v>
+      </c>
       <c r="F43">
-        <v>0</v>
+        <v>1.556013516238297</v>
+      </c>
+      <c r="I43">
+        <v>3.440452405028724</v>
+      </c>
+      <c r="J43">
+        <v>2.097722777480963</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="N43">
+        <v>1.413106498150764</v>
+      </c>
+      <c r="O43">
+        <v>0.2662586664358917</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>0.08381047144146736</v>
+      </c>
+      <c r="S43">
+        <v>3.422819855117782</v>
+      </c>
+      <c r="T43">
+        <v>1.906268098608724</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -2505,13 +3138,37 @@
       <c r="A44" t="s">
         <v>42</v>
       </c>
+      <c r="D44">
+        <v>2.931666810978982</v>
+      </c>
+      <c r="E44">
+        <v>1.93842955663685</v>
+      </c>
       <c r="F44">
-        <v>0</v>
+        <v>1.44025451537438</v>
+      </c>
+      <c r="I44">
+        <v>3.428244968282252</v>
+      </c>
+      <c r="J44">
+        <v>2.097673506429633</v>
       </c>
       <c r="K44">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="N44">
+        <v>0.2855070580070349</v>
+      </c>
+      <c r="O44">
         <v>0</v>
       </c>
       <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>1.11961715550598</v>
+      </c>
+      <c r="T44">
         <v>0</v>
       </c>
       <c r="U44">
@@ -2522,30 +3179,78 @@
       <c r="A45" t="s">
         <v>43</v>
       </c>
+      <c r="D45">
+        <v>3.518534069729952</v>
+      </c>
+      <c r="E45">
+        <v>2.104224644026322</v>
+      </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.556470026623303</v>
+      </c>
+      <c r="I45">
+        <v>3.440314852876095</v>
+      </c>
+      <c r="J45">
+        <v>2.097821318928848</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1.5206211334196</v>
+      </c>
+      <c r="N45">
+        <v>3.613049576922129</v>
+      </c>
+      <c r="O45">
+        <v>2.261262904771689</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>1.974080654760752</v>
+      </c>
+      <c r="S45">
+        <v>3.464434430236439</v>
+      </c>
+      <c r="T45">
+        <v>2.102648781988058</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <v>1.532174280736438</v>
       </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>44</v>
       </c>
+      <c r="D46">
+        <v>3.331835403781779</v>
+      </c>
+      <c r="E46">
+        <v>1.989740481105756</v>
+      </c>
       <c r="F46">
-        <v>0</v>
+        <v>1.51902569111609</v>
+      </c>
+      <c r="I46">
+        <v>3.428476644468471</v>
+      </c>
+      <c r="J46">
+        <v>2.097673506429633</v>
       </c>
       <c r="K46">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="N46">
+        <v>0.3074059922439998</v>
+      </c>
+      <c r="O46">
         <v>0</v>
       </c>
       <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>1.217352980786835</v>
+      </c>
+      <c r="T46">
         <v>0</v>
       </c>
       <c r="U46">
@@ -2556,30 +3261,54 @@
       <c r="A47" t="s">
         <v>45</v>
       </c>
+      <c r="E47">
+        <v>2.103978430238167</v>
+      </c>
       <c r="F47">
-        <v>0</v>
+        <v>1.556169475175335</v>
+      </c>
+      <c r="J47">
+        <v>2.097821318928848</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1.520529969194051</v>
+      </c>
+      <c r="O47">
+        <v>2.182510334570026</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>1.925629632331105</v>
+      </c>
+      <c r="T47">
+        <v>1.976660707350784</v>
       </c>
       <c r="U47">
-        <v>0</v>
+        <v>1.136814771308273</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>46</v>
       </c>
+      <c r="E48">
+        <v>2.088603907976537</v>
+      </c>
       <c r="F48">
-        <v>0</v>
+        <v>1.512414452834532</v>
+      </c>
+      <c r="J48">
+        <v>2.097673506429633</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1.520712297171943</v>
+      </c>
+      <c r="O48">
+        <v>1.888733520611149</v>
       </c>
       <c r="P48">
+        <v>1.688576810280387</v>
+      </c>
+      <c r="T48">
         <v>0</v>
       </c>
       <c r="U48">
@@ -2590,13 +3319,25 @@
       <c r="A49" t="s">
         <v>47</v>
       </c>
+      <c r="E49">
+        <v>2.079780142012199</v>
+      </c>
       <c r="F49">
-        <v>0</v>
+        <v>1.519481546575009</v>
+      </c>
+      <c r="J49">
+        <v>2.09787058932542</v>
       </c>
       <c r="K49">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <v>0</v>
       </c>
       <c r="U49">
@@ -2607,14 +3348,26 @@
       <c r="A50" t="s">
         <v>48</v>
       </c>
+      <c r="E50">
+        <v>2.103929186829435</v>
+      </c>
       <c r="F50">
-        <v>0</v>
+        <v>1.556389276869238</v>
+      </c>
+      <c r="J50">
+        <v>2.097722777480963</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O50">
+        <v>2.131649593444121</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>1.833447209484372</v>
+      </c>
+      <c r="T50">
+        <v>0.193861778330171</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -2624,144 +3377,84 @@
       <c r="A51" t="s">
         <v>49</v>
       </c>
+      <c r="E51">
+        <v>2.104076916404499</v>
+      </c>
       <c r="F51">
-        <v>0</v>
+        <v>1.555909378364822</v>
+      </c>
+      <c r="J51">
+        <v>2.097821318928848</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1.520575551365979</v>
+      </c>
+      <c r="O51">
+        <v>2.261210030459311</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1.974348136000174</v>
+      </c>
+      <c r="T51">
+        <v>2.102599532715481</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1.542863335187482</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="C52">
-        <v>20</v>
-      </c>
-      <c r="D52">
-        <v>30</v>
-      </c>
       <c r="E52">
-        <v>40</v>
+        <v>2.103929186829435</v>
       </c>
       <c r="F52">
-        <v>50</v>
-      </c>
-      <c r="G52">
-        <v>10</v>
-      </c>
-      <c r="H52">
-        <v>20</v>
-      </c>
-      <c r="I52">
-        <v>30</v>
+        <v>1.556305300853272</v>
       </c>
       <c r="J52">
-        <v>40</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K52">
-        <v>50</v>
-      </c>
-      <c r="L52">
-        <v>10</v>
-      </c>
-      <c r="M52">
-        <v>20</v>
-      </c>
-      <c r="N52">
-        <v>30</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="O52">
-        <v>40</v>
+        <v>2.261087692610212</v>
       </c>
       <c r="P52">
-        <v>50</v>
-      </c>
-      <c r="Q52">
-        <v>10</v>
-      </c>
-      <c r="R52">
-        <v>20</v>
-      </c>
-      <c r="S52">
-        <v>30</v>
+        <v>1.978611348075625</v>
       </c>
       <c r="T52">
-        <v>40</v>
+        <v>2.102599532715481</v>
       </c>
       <c r="U52">
-        <v>50</v>
+        <v>1.531632078399724</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
       <c r="E53">
-        <v>0</v>
+        <v>2.103978430238167</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
+        <v>1.556214750511108</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>2.097821318928848</v>
       </c>
       <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>2.174979489021887</v>
       </c>
       <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
+        <v>1.886641133141964</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>2.047456619978899</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -2771,59 +3464,23 @@
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
       <c r="E54">
-        <v>0</v>
+        <v>2.103879943203649</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
+        <v>1.555878981126704</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>2.097772048314032</v>
       </c>
       <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>2.1748307718791</v>
       </c>
       <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
+        <v>1.908750565016267</v>
       </c>
       <c r="T54">
         <v>0</v>
@@ -2836,64 +3493,1067 @@
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="E55">
+        <v>2.099397863422854</v>
+      </c>
+      <c r="F55">
+        <v>1.539539817761439</v>
+      </c>
+      <c r="J55">
+        <v>2.09787058932542</v>
+      </c>
+      <c r="K55">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="O55">
+        <v>1.937957720692028</v>
+      </c>
+      <c r="P55">
+        <v>1.737673861303153</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>1.356133771135828</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <v>2.103879943203649</v>
+      </c>
+      <c r="F56">
+        <v>1.556531674787531</v>
+      </c>
+      <c r="J56">
+        <v>2.097772048314032</v>
+      </c>
+      <c r="K56">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="O56">
+        <v>2.174860106300233</v>
+      </c>
+      <c r="P56">
+        <v>1.89512660678368</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>1.242200828366969</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>2.103929186829435</v>
+      </c>
+      <c r="F57">
+        <v>1.55626026865486</v>
+      </c>
+      <c r="J57">
+        <v>2.097772048314032</v>
+      </c>
+      <c r="K57">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O57">
+        <v>2.261200434970836</v>
+      </c>
+      <c r="P57">
+        <v>1.966779694510851</v>
+      </c>
+      <c r="T57">
+        <v>2.102550283225587</v>
+      </c>
+      <c r="U57">
+        <v>1.531746238601206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>2.100136791812801</v>
+      </c>
+      <c r="F58">
+        <v>1.540112667179782</v>
+      </c>
+      <c r="J58">
+        <v>2.097722777480963</v>
+      </c>
+      <c r="K58">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="O58">
+        <v>2.083326317298257</v>
+      </c>
+      <c r="P58">
+        <v>1.820688520064656</v>
+      </c>
+      <c r="T58">
+        <v>2.102747279881315</v>
+      </c>
+      <c r="U58">
+        <v>1.535144686225512</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>2.103978430238167</v>
+      </c>
+      <c r="F59">
+        <v>1.555961397605868</v>
+      </c>
+      <c r="J59">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K59">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="O59">
+        <v>2.261038666004725</v>
+      </c>
+      <c r="P59">
+        <v>1.973523025298871</v>
+      </c>
+      <c r="T59">
+        <v>2.102648781988058</v>
+      </c>
+      <c r="U59">
+        <v>1.53169434241844</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>2.103879943203649</v>
+      </c>
+      <c r="F60">
+        <v>1.556305300853272</v>
+      </c>
+      <c r="J60">
+        <v>2.097772048314032</v>
+      </c>
+      <c r="K60">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O60">
+        <v>2.261226981613181</v>
+      </c>
+      <c r="P60">
+        <v>1.971444271509996</v>
+      </c>
+      <c r="T60">
+        <v>2.102599532715481</v>
+      </c>
+      <c r="U60">
+        <v>1.531901512540202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>2.103929186829435</v>
+      </c>
+      <c r="F61">
+        <v>1.556214750511108</v>
+      </c>
+      <c r="J61">
+        <v>2.09787058932542</v>
+      </c>
+      <c r="K61">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="O61">
+        <v>2.174361161470104</v>
+      </c>
+      <c r="P61">
+        <v>1.900771373298696</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>1.414896695805646</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>2.103978430238167</v>
+      </c>
+      <c r="F62">
+        <v>1.556214750511108</v>
+      </c>
+      <c r="J62">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K62">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O62">
+        <v>0.2099828170022529</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>2.103879943203649</v>
+      </c>
+      <c r="F63">
+        <v>1.556350575859674</v>
+      </c>
+      <c r="J63">
+        <v>2.097772048314032</v>
+      </c>
+      <c r="K63">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O63">
+        <v>2.174911237992825</v>
+      </c>
+      <c r="P63">
+        <v>1.8992550861975</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>1.213780161104718</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>2.103879943203649</v>
+      </c>
+      <c r="F64">
+        <v>1.556587216815881</v>
+      </c>
+      <c r="J64">
+        <v>2.097722777480963</v>
+      </c>
+      <c r="K64">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="O64">
+        <v>2.261118886209699</v>
+      </c>
+      <c r="P64">
+        <v>1.97664284709779</v>
+      </c>
+      <c r="T64">
+        <v>2.102550283225587</v>
+      </c>
+      <c r="U64">
+        <v>1.535582944109593</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>2.100519420033052</v>
+      </c>
+      <c r="F65">
+        <v>1.556260025737084</v>
+      </c>
+      <c r="J65">
+        <v>2.097722777480963</v>
+      </c>
+      <c r="K65">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="O65">
+        <v>2.174916751909825</v>
+      </c>
+      <c r="P65">
+        <v>1.901120392286013</v>
+      </c>
+      <c r="T65">
+        <v>2.038181873371607</v>
+      </c>
+      <c r="U65">
+        <v>1.406527820422234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <v>2.103978430238167</v>
+      </c>
+      <c r="F66">
+        <v>1.556169475175335</v>
+      </c>
+      <c r="J66">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K66">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O66">
+        <v>2.261509416085304</v>
+      </c>
+      <c r="P66">
+        <v>1.97860652358292</v>
+      </c>
+      <c r="T66">
+        <v>2.102599532715481</v>
+      </c>
+      <c r="U66">
+        <v>1.531679400935809</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <v>2.10402767342985</v>
+      </c>
+      <c r="F67">
+        <v>1.556275097463343</v>
+      </c>
+      <c r="J67">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K67">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O67">
+        <v>2.261254270805132</v>
+      </c>
+      <c r="P67">
+        <v>1.973595213509734</v>
+      </c>
+      <c r="T67">
+        <v>2.102648781988058</v>
+      </c>
+      <c r="U67">
+        <v>1.531948413821494</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <v>2.103929186829435</v>
+      </c>
+      <c r="F68">
+        <v>1.556305300853272</v>
+      </c>
+      <c r="J68">
+        <v>2.097722777480963</v>
+      </c>
+      <c r="K68">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="O68">
+        <v>2.26143435827433</v>
+      </c>
+      <c r="P68">
+        <v>1.976340959699493</v>
+      </c>
+      <c r="T68">
+        <v>2.102550283225587</v>
+      </c>
+      <c r="U68">
+        <v>1.529883171877414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <v>2.095409291325015</v>
+      </c>
+      <c r="F69">
+        <v>1.524449604102968</v>
+      </c>
+      <c r="J69">
+        <v>2.097673506429633</v>
+      </c>
+      <c r="K69">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <v>2.103929186829435</v>
+      </c>
+      <c r="F70">
+        <v>1.555998826207018</v>
+      </c>
+      <c r="J70">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K70">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="O70">
+        <v>2.261416324119994</v>
+      </c>
+      <c r="P70">
+        <v>1.978169479399991</v>
+      </c>
+      <c r="T70">
+        <v>2.102698031043334</v>
+      </c>
+      <c r="U70">
+        <v>1.53171986671346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>2.009734044824275</v>
+      </c>
+      <c r="F71">
+        <v>1.515150440803724</v>
+      </c>
+      <c r="J71">
+        <v>2.09787058932542</v>
+      </c>
+      <c r="K71">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <v>2.050577676030545</v>
+      </c>
+      <c r="F72">
+        <v>1.50735174251563</v>
+      </c>
+      <c r="J72">
+        <v>2.09787058932542</v>
+      </c>
+      <c r="K72">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="O72">
+        <v>1.90144857668722</v>
+      </c>
+      <c r="P72">
+        <v>1.7313454652621</v>
+      </c>
+      <c r="T72">
+        <v>2.084385217360766</v>
+      </c>
+      <c r="U72">
+        <v>1.507991479498412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <v>2.103879943203649</v>
+      </c>
+      <c r="F73">
+        <v>1.55645808536007</v>
+      </c>
+      <c r="J73">
+        <v>2.097772048314032</v>
+      </c>
+      <c r="K73">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="O73">
+        <v>2.26127883178221</v>
+      </c>
+      <c r="P73">
+        <v>1.971904180725208</v>
+      </c>
+      <c r="T73">
+        <v>2.102698031043334</v>
+      </c>
+      <c r="U73">
+        <v>1.53529187413486</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>2.103978430238167</v>
+      </c>
+      <c r="F74">
+        <v>1.556260025737084</v>
+      </c>
+      <c r="J74">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K74">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="O74">
+        <v>2.261289499156583</v>
+      </c>
+      <c r="P74">
+        <v>1.978287029085467</v>
+      </c>
+      <c r="T74">
+        <v>2.102599532715481</v>
+      </c>
+      <c r="U74">
+        <v>1.531940331756623</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <v>2.097073331720507</v>
+      </c>
+      <c r="F75">
+        <v>1.556214750511108</v>
+      </c>
+      <c r="J75">
+        <v>2.097821318928848</v>
+      </c>
+      <c r="K75">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="O75">
+        <v>0.2180327322021942</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1.975842807108735</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <v>2.095120793308084</v>
+      </c>
+      <c r="F76">
+        <v>1.556350575859674</v>
+      </c>
+      <c r="J76">
+        <v>2.097772048314032</v>
+      </c>
+      <c r="K76">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="O76">
+        <v>1.944046249408426</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0.1904235629055675</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="F77">
+        <v>1.556046400123073</v>
+      </c>
+      <c r="K77">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="P77">
+        <v>1.864664330642227</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="F78">
+        <v>1.556214750511108</v>
+      </c>
+      <c r="K78">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79">
+        <v>1.490145704232632</v>
+      </c>
+      <c r="K79">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="P79">
+        <v>1.594586216129267</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80">
+        <v>1.556260025737084</v>
+      </c>
+      <c r="K80">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="P80">
+        <v>1.911016162627818</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81">
+        <v>1.556586066498358</v>
+      </c>
+      <c r="K81">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="P81">
+        <v>1.971369998708813</v>
+      </c>
+      <c r="U81">
+        <v>1.529835968870584</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82">
+        <v>1.556214750511108</v>
+      </c>
+      <c r="K82">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="P82">
+        <v>1.978529933703202</v>
+      </c>
+      <c r="U82">
+        <v>1.531877016431682</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="F83">
+        <v>1.555994430816038</v>
+      </c>
+      <c r="K83">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="P83">
+        <v>1.971602495161405</v>
+      </c>
+      <c r="U83">
+        <v>1.532194817933351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="F84">
+        <v>1.524449604102968</v>
+      </c>
+      <c r="K84">
+        <v>1.520529969194051</v>
+      </c>
+      <c r="P84">
+        <v>1.788757107053692</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85">
+        <v>1.556260025737084</v>
+      </c>
+      <c r="K85">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="P85">
+        <v>1.978236956542977</v>
+      </c>
+      <c r="U85">
+        <v>1.535274060818587</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86">
+        <v>1.556260025737084</v>
+      </c>
+      <c r="K86">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="P86">
+        <v>1.971564950553192</v>
+      </c>
+      <c r="U86">
+        <v>1.542284625436799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>25</v>
+      </c>
+      <c r="C87">
+        <v>35</v>
+      </c>
+      <c r="D87">
+        <v>45</v>
+      </c>
+      <c r="E87">
+        <v>75</v>
+      </c>
+      <c r="F87">
+        <v>85</v>
+      </c>
+      <c r="G87">
+        <v>25</v>
+      </c>
+      <c r="H87">
+        <v>35</v>
+      </c>
+      <c r="I87">
+        <v>45</v>
+      </c>
+      <c r="J87">
+        <v>75</v>
+      </c>
+      <c r="K87">
+        <v>85</v>
+      </c>
+      <c r="L87">
+        <v>25</v>
+      </c>
+      <c r="M87">
+        <v>35</v>
+      </c>
+      <c r="N87">
+        <v>45</v>
+      </c>
+      <c r="O87">
+        <v>75</v>
+      </c>
+      <c r="P87">
+        <v>85</v>
+      </c>
+      <c r="Q87">
+        <v>25</v>
+      </c>
+      <c r="R87">
+        <v>35</v>
+      </c>
+      <c r="S87">
+        <v>45</v>
+      </c>
+      <c r="T87">
+        <v>75</v>
+      </c>
+      <c r="U87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
         <v>1</v>
       </c>
-      <c r="C55">
+      <c r="C88">
         <v>1</v>
       </c>
-      <c r="D55">
+      <c r="D88">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
         <v>1</v>
       </c>
-      <c r="E55">
+      <c r="H88">
         <v>1</v>
       </c>
-      <c r="F55">
+      <c r="I88">
         <v>1</v>
       </c>
-      <c r="G55">
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
         <v>1</v>
       </c>
-      <c r="H55">
+      <c r="M88">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="N88">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
         <v>1</v>
       </c>
-      <c r="I55">
+      <c r="R88">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="S88">
+        <v>0.7111111111111111</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.92</v>
+      </c>
+      <c r="C89">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
         <v>1</v>
       </c>
-      <c r="J55">
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0.88</v>
+      </c>
+      <c r="M89">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
         <v>1</v>
       </c>
-      <c r="K55">
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="F90">
         <v>1</v>
       </c>
-      <c r="L55">
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
         <v>1</v>
       </c>
-      <c r="M55">
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0.2</v>
+      </c>
+      <c r="N90">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="O90">
+        <v>0.3466666666666667</v>
+      </c>
+      <c r="P90">
         <v>1</v>
       </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55">
-        <v>1</v>
-      </c>
-      <c r="Q55">
-        <v>1</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
-      <c r="T55">
-        <v>1</v>
-      </c>
-      <c r="U55">
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="S90">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="T90">
+        <v>0.4533333333333333</v>
+      </c>
+      <c r="U90">
         <v>1</v>
       </c>
     </row>
